--- a/Plan/Data_추출파일/009.캐릭터도감테이블.xlsx
+++ b/Plan/Data_추출파일/009.캐릭터도감테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE33AC60-56C2-44CD-92C7-2B89BB59A991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E45C370E-1461-44C2-AFFF-3FE5A9D8D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79969BDE-E98F-4198-AB84-E3D292B11825}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{35AEF119-2D17-4210-BA55-FC8BD6F1A78A}"/>
   </bookViews>
   <sheets>
     <sheet name="009.캐릭터도감테이블" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>character_name</t>
   </si>
   <si>
-    <t>get</t>
+    <t>get_check</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F787632-22CA-412C-BEC5-ADA859D9AA84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A77EDB1-1118-4864-91EE-62BC7BABB798}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
